--- a/data/primary_data/extract/simplified_data/simplified_mcadl.xlsx
+++ b/data/primary_data/extract/simplified_data/simplified_mcadl.xlsx
@@ -37,10 +37,10 @@
     <t>{'violence'}</t>
   </si>
   <si>
-    <t>{'public order', 'theft', 'robbery', 'sexual'}</t>
-  </si>
-  <si>
-    <t>{'public order', 'violence', 'drugs'}</t>
+    <t>{'robbery', 'sexual', 'public order', 'theft'}</t>
+  </si>
+  <si>
+    <t>{'drugs', 'violence', 'public order'}</t>
   </si>
 </sst>
 </file>
